--- a/possible_variations.xlsx
+++ b/possible_variations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Leon Jovanovic\Desktop\Projekti\Genomska Informatika\genome-informatics-GIAB-reconstruction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63A8AE2-9682-4BEA-AD09-66A2D2EC5AE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DE53B0-BA3F-49A7-8606-9E45AE1C7BB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D44BED9-A905-40A3-8FD4-82979532C07C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="38">
   <si>
     <t>Majka</t>
   </si>
@@ -112,6 +112,33 @@
   </si>
   <si>
     <t>(0/1) ALT I REF moraju da budu isti kao jedan od majke, (1/2)  ako su pos isti, ref razliciti izmedju roditelja onda specijalni slucaj, ako su pos iste, ref isti I alt razliciti onda jedan alt kao otac jedan kao jedan od majke, (1/1) pos, ref i alt roditelja moraju da budu isti tj neka cesta varijacija</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proveravamo REF i Alt i ako su isti onda upisujemo ako ne Skip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">proveravamo REF i jedan od Alt i ako su isti onda upisujemo ako ne Skip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">proveravamo REF i jedan od Alt i ako su isti onda upisujemo 0/1 ako ne Skip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">proveravamo REF i Alt i ako su isti onda upisujemo 0/1 ako ne Skip </t>
+  </si>
+  <si>
+    <t>Intersection</t>
+  </si>
+  <si>
+    <t>Skip*****</t>
   </si>
 </sst>
 </file>
@@ -141,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -244,11 +271,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,6 +381,63 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,29 +753,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A34817B-440C-41F7-9892-E889A8CD90E8}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="174.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="61.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -641,8 +791,9 @@
       <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -655,8 +806,9 @@
       <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -669,8 +821,9 @@
       <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -683,8 +836,9 @@
       <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -697,8 +851,9 @@
       <c r="E7" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
@@ -711,8 +866,9 @@
       <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="2:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
@@ -725,8 +881,9 @@
       <c r="E9" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
@@ -739,8 +896,9 @@
       <c r="E10" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
@@ -753,8 +911,9 @@
       <c r="E11" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
@@ -767,8 +926,9 @@
       <c r="E12" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
@@ -781,8 +941,9 @@
       <c r="E13" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
@@ -795,8 +956,9 @@
       <c r="E14" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>4</v>
       </c>
@@ -809,8 +971,9 @@
       <c r="E15" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -823,8 +986,9 @@
       <c r="E16" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
@@ -837,8 +1001,9 @@
       <c r="E17" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>5</v>
       </c>
@@ -851,8 +1016,9 @@
       <c r="E18" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>5</v>
       </c>
@@ -865,10 +1031,251 @@
       <c r="E19" s="13" t="s">
         <v>27</v>
       </c>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="17">
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/possible_variations.xlsx
+++ b/possible_variations.xlsx
@@ -5,23 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Leon Jovanovic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Leon Jovanovic\Desktop\Projekti\Genomska Informatika\genome-informatics-GIAB-reconstruction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0857B4-2972-4DA5-AB39-9EC4D9BA9D68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C6CFB6-C87D-4812-B2E2-1B9F91046AF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="1215" windowWidth="18795" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="62">
   <si>
     <t>CHROMOSOME 1-22</t>
   </si>
@@ -192,13 +191,28 @@
   </si>
   <si>
     <t>Prepisujemo 1/2</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Disjunction on same position</t>
+  </si>
+  <si>
+    <t>De Novo</t>
+  </si>
+  <si>
+    <t>Skip bez uslova</t>
+  </si>
+  <si>
+    <t>De Novo na jednom hromozomu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +236,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,29 +518,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -533,14 +551,83 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G55"/>
+  <dimension ref="B2:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -836,12 +923,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6">
@@ -1106,10 +1193,10 @@
       <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="35"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="16"/>
       <c r="G22" s="3"/>
     </row>
@@ -1120,10 +1207,10 @@
       <c r="C23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="42"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
     </row>
@@ -1134,10 +1221,10 @@
       <c r="C24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="42"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="17"/>
       <c r="G24" s="19"/>
     </row>
@@ -1148,10 +1235,10 @@
       <c r="C25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="17"/>
       <c r="G25" s="19"/>
     </row>
@@ -1162,10 +1249,10 @@
       <c r="C26" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="17"/>
       <c r="G26" s="19"/>
     </row>
@@ -1176,10 +1263,10 @@
       <c r="C27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="22"/>
       <c r="G27" s="19"/>
     </row>
@@ -1190,10 +1277,10 @@
       <c r="C28" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="38"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="22"/>
       <c r="G28" s="19"/>
     </row>
@@ -1204,10 +1291,10 @@
       <c r="C29" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="38"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="22"/>
       <c r="G29" s="19"/>
     </row>
@@ -1218,10 +1305,10 @@
       <c r="C30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="22"/>
       <c r="G30" s="19"/>
     </row>
@@ -1232,10 +1319,10 @@
       <c r="C31" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="38"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="22"/>
       <c r="G31" s="19"/>
     </row>
@@ -1246,10 +1333,10 @@
       <c r="C32" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="38"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="22"/>
       <c r="G32" s="19"/>
     </row>
@@ -1260,10 +1347,10 @@
       <c r="C33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="38"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="22"/>
       <c r="G33" s="19"/>
     </row>
@@ -1274,10 +1361,10 @@
       <c r="C34" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="42"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="22"/>
       <c r="G34" s="19"/>
     </row>
@@ -1288,10 +1375,10 @@
       <c r="C35" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="38"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="22"/>
       <c r="G35" s="19"/>
     </row>
@@ -1302,10 +1389,10 @@
       <c r="C36" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="38"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="22"/>
       <c r="G36" s="19"/>
     </row>
@@ -1316,10 +1403,10 @@
       <c r="C37" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="40"/>
+      <c r="E37" s="39"/>
       <c r="F37" s="25"/>
       <c r="G37" s="26"/>
     </row>
@@ -1330,36 +1417,36 @@
       <c r="C40" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="35"/>
+      <c r="E40" s="32"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="33"/>
+      <c r="E41" s="30"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="33"/>
+      <c r="E42" s="30"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="27" t="s">
@@ -1370,8 +1457,8 @@
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="28" t="s">
         <v>41</v>
       </c>
@@ -1386,141 +1473,329 @@
       <c r="C46" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="35"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="36" t="s">
+      <c r="B47" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="36"/>
+      <c r="E47" s="42"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="31" t="s">
+      <c r="B48" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="31"/>
+      <c r="E48" s="45"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="31" t="s">
+      <c r="B49" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="31"/>
+      <c r="E49" s="45"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="31" t="s">
+      <c r="B50" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="31"/>
+      <c r="E50" s="45"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="31" t="s">
+      <c r="B51" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="31"/>
+      <c r="E51" s="45"/>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="31" t="s">
+      <c r="B52" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="31"/>
+      <c r="E52" s="45"/>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="31" t="s">
+      <c r="B53" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="31"/>
+      <c r="E53" s="45"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="32" t="s">
+      <c r="B54" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="32"/>
+      <c r="E54" s="48"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="31" t="s">
+      <c r="B55" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="31"/>
+      <c r="E55" s="51"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="32"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="45"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="45"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="45"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="48"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="61"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="45"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="45"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="48"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="61"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="61"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" s="45"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="48"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="48"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="48"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
+  <mergeCells count="48">
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
@@ -1533,6 +1808,26 @@
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/possible_variations.xlsx
+++ b/possible_variations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Leon Jovanovic\Desktop\Projekti\Genomska Informatika\genome-informatics-GIAB-reconstruction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C6CFB6-C87D-4812-B2E2-1B9F91046AF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C5118-3419-49DE-ABAC-EBD93295BD4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="56">
   <si>
     <t>CHROMOSOME 1-22</t>
   </si>
@@ -133,25 +133,7 @@
     <t>FatherChild</t>
   </si>
   <si>
-    <t>Exists</t>
-  </si>
-  <si>
     <t>Union on same position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write </t>
-  </si>
-  <si>
-    <t>if alt0 == alt1</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>Write + 1/1</t>
-  </si>
-  <si>
-    <t>Write + new alts + 1/2</t>
   </si>
   <si>
     <t>proveravamo REF i Alt i ako su isti onda upisujemo ako ne Skip I u disjunkciji poredimo 1/1 I 0/1</t>
@@ -513,22 +495,106 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -539,95 +605,11 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:E69"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -916,19 +898,19 @@
     <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="73.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6">
@@ -1193,10 +1175,10 @@
       <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="32"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="16"/>
       <c r="G22" s="3"/>
     </row>
@@ -1207,10 +1189,10 @@
       <c r="C23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="34"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
     </row>
@@ -1221,10 +1203,10 @@
       <c r="C24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="34"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="17"/>
       <c r="G24" s="19"/>
     </row>
@@ -1235,10 +1217,10 @@
       <c r="C25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="17"/>
       <c r="G25" s="19"/>
     </row>
@@ -1249,10 +1231,10 @@
       <c r="C26" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="34"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="17"/>
       <c r="G26" s="19"/>
     </row>
@@ -1263,10 +1245,10 @@
       <c r="C27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="35"/>
+      <c r="D27" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="63"/>
       <c r="F27" s="22"/>
       <c r="G27" s="19"/>
     </row>
@@ -1277,10 +1259,10 @@
       <c r="C28" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="37"/>
+      <c r="D28" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="58"/>
       <c r="F28" s="22"/>
       <c r="G28" s="19"/>
     </row>
@@ -1291,10 +1273,10 @@
       <c r="C29" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="37"/>
+      <c r="D29" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="58"/>
       <c r="F29" s="22"/>
       <c r="G29" s="19"/>
     </row>
@@ -1305,10 +1287,10 @@
       <c r="C30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="34"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="22"/>
       <c r="G30" s="19"/>
     </row>
@@ -1319,10 +1301,10 @@
       <c r="C31" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="37"/>
+      <c r="D31" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="58"/>
       <c r="F31" s="22"/>
       <c r="G31" s="19"/>
     </row>
@@ -1333,10 +1315,10 @@
       <c r="C32" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="37"/>
+      <c r="D32" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="58"/>
       <c r="F32" s="22"/>
       <c r="G32" s="19"/>
     </row>
@@ -1347,10 +1329,10 @@
       <c r="C33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="37"/>
+      <c r="D33" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="58"/>
       <c r="F33" s="22"/>
       <c r="G33" s="19"/>
     </row>
@@ -1361,10 +1343,10 @@
       <c r="C34" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="34"/>
+      <c r="E34" s="62"/>
       <c r="F34" s="22"/>
       <c r="G34" s="19"/>
     </row>
@@ -1375,10 +1357,10 @@
       <c r="C35" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="37"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="22"/>
       <c r="G35" s="19"/>
     </row>
@@ -1389,10 +1371,10 @@
       <c r="C36" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="37"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="22"/>
       <c r="G36" s="19"/>
     </row>
@@ -1403,68 +1385,42 @@
       <c r="C37" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="39"/>
+      <c r="E37" s="60"/>
       <c r="F37" s="25"/>
       <c r="G37" s="26"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="32"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="30"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="30"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="3" t="s">
@@ -1473,361 +1429,356 @@
       <c r="C46" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="32"/>
+      <c r="D46" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="49"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="40" t="s">
+      <c r="B47" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="56"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="47"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="47"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="47"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="47"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="47"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="47"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="41"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="42"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="44" t="s">
+      <c r="E55" s="51"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="45"/>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="44" t="s">
+      <c r="C57" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="49"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="47"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="47"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="47"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="45"/>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="45"/>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="44" t="s">
+      <c r="E61" s="41"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="45"/>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="45"/>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="44" t="s">
+      <c r="E62" s="45"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="47"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="47"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="41"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="45"/>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="47" t="s">
+      <c r="E66" s="45"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="45"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="48"/>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="51"/>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" s="32"/>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="45"/>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" s="45"/>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="45"/>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" s="48"/>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62" s="61"/>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="45"/>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="45"/>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E65" s="48"/>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="E66" s="61"/>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="61"/>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E68" s="45"/>
+      <c r="E68" s="47"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E69" s="48"/>
+      <c r="B69" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" s="41"/>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E70" s="48"/>
+      <c r="B70" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="41"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E71" s="48"/>
+      <c r="B71" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="41"/>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="E72" s="65"/>
+      <c r="B72" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
+  <mergeCells count="43">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
